--- a/benchmarks/sqlite-benchmarks/results/Charts.xlsx
+++ b/benchmarks/sqlite-benchmarks/results/Charts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/justsch_student_ubc_ca/Documents/Documents/Work/sbits_spline/benchmarks/sqlite-benchmarks/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{0C3BAB36-F8EF-4244-9D46-8E7B87B60C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499B54E2-E52C-4A18-9A45-AD2EF97F5CB3}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{0C3BAB36-F8EF-4244-9D46-8E7B87B60C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377A183C-A28D-4BF9-B16F-BA35E8BD6B13}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{D537F6B3-ED27-4C77-A342-7DC67A9C2D70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D537F6B3-ED27-4C77-A342-7DC67A9C2D70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raspberry Pi" sheetId="1" r:id="rId1"/>
+    <sheet name="Desktop" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>SBITS</t>
   </si>
@@ -79,13 +80,33 @@
   <si>
     <t>Seqential key-value</t>
   </si>
+  <si>
+    <t>Inserts/Queries per sec</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Single Data value</t>
+  </si>
+  <si>
+    <t>INT Forced No Index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,9 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -170,12 +195,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Key-based</a:t>
+              <a:t>Single Key</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Queries</a:t>
+              <a:t> Queries/sec</a:t>
             </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -220,10 +246,10 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>'Raspberry Pi'!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>SBITS</c:v>
                 </c:pt>
               </c:strCache>
@@ -302,21 +328,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$4:$A$6</c:f>
+              <c:f>'Raspberry Pi'!$A$29:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>SELECT *</c:v>
+                  <c:v>Seqential key-value</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Small key</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Large key</c:v>
+                  <c:v>Random key-value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -326,29 +349,26 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$3:$B$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$B$22:$B$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$4:$B$6</c:f>
+              <c:f>'Raspberry Pi'!$B$29:$B$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>185</c:v>
+                  <c:v>537056.92803437158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>182</c:v>
+                  <c:v>65928.270042194097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E13-41C6-8952-91E7D4C4EE85}"/>
+              <c16:uniqueId val="{00000000-FDDC-461C-A37A-D366F4B6F9EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -357,7 +377,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>'Raspberry Pi'!$C$20:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -442,21 +462,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$4:$A$6</c:f>
+              <c:f>'Raspberry Pi'!$A$29:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>SELECT *</c:v>
+                  <c:v>Seqential key-value</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Small key</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Large key</c:v>
+                  <c:v>Random key-value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -466,45 +483,176 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$3:$C$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$C$22:$C$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$4:$C$6</c:f>
+              <c:f>'Raspberry Pi'!$C$29:$C$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1094</c:v>
+                  <c:v>31038.549878949652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>983</c:v>
+                  <c:v>22725.206799381875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E13-41C6-8952-91E7D4C4EE85}"/>
+              <c16:uniqueId val="{00000001-FDDC-461C-A37A-D366F4B6F9EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$D$20:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TEXT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$29:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Seqential key-value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random key-value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$D$22:$D$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$D$29:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>31422.825540472597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22598.870056497177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDDC-461C-A37A-D366F4B6F9EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>'Raspberry Pi'!$E$20:$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>SQLite</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEXT</c:v>
+                  <c:v>BLOB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,21 +730,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$4:$A$6</c:f>
+              <c:f>'Raspberry Pi'!$A$29:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>SELECT *</c:v>
+                  <c:v>Seqential key-value</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Small key</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Large key</c:v>
+                  <c:v>Random key-value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -606,169 +751,26 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$3:$D$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$E$22:$E$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$4:$D$6</c:f>
+              <c:f>'Raspberry Pi'!$E$29:$E$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>770</c:v>
+                  <c:v>31389.289974260781</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>693</c:v>
+                  <c:v>22587.640043368268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E13-41C6-8952-91E7D4C4EE85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BLOB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$4:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>SELECT *</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Small key</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Large key</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$3:$E$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>693</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2E13-41C6-8952-91E7D4C4EE85}"/>
+              <c16:uniqueId val="{00000003-FDDC-461C-A37A-D366F4B6F9EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -794,7 +796,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -879,7 +881,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:t>Inserts/sec</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -913,7 +915,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1058,13 +1060,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Data-based</a:t>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Queries/sec</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Queries</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1109,10 +1108,10 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>'Raspberry Pi'!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>SBITS</c:v>
                 </c:pt>
               </c:strCache>
@@ -1191,21 +1190,15 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$7:$A$9</c:f>
+              <c:f>'Raspberry Pi'!$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Small data</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Large data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Key &amp; data</c:v>
+                  <c:v>SELECT *</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,29 +1208,23 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$3:$B$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$B$22:$B$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$7:$B$9</c:f>
+              <c:f>'Raspberry Pi'!$B$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113</c:v>
+                  <c:v>2702702.702702703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F466-4F2B-9384-4065DD91146E}"/>
+              <c16:uniqueId val="{00000000-7ED9-4E30-847B-8AD74C1D8B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1246,7 +1233,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>'Raspberry Pi'!$C$20:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1331,21 +1318,15 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$7:$A$9</c:f>
+              <c:f>'Raspberry Pi'!$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Small data</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Large data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Key &amp; data</c:v>
+                  <c:v>SELECT *</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1355,45 +1336,167 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$3:$C$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$C$22:$C$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$7:$C$9</c:f>
+              <c:f>'Raspberry Pi'!$C$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3537</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2054</c:v>
+                  <c:v>457038.39122486283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F466-4F2B-9384-4065DD91146E}"/>
+              <c16:uniqueId val="{00000001-7ED9-4E30-847B-8AD74C1D8B37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$D$20:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TEXT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SELECT *</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$D$22:$D$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>649350.64935064933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7ED9-4E30-847B-8AD74C1D8B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>'Raspberry Pi'!$E$20:$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>SQLite</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEXT</c:v>
+                  <c:v>BLOB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1471,21 +1574,15 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$7:$A$9</c:f>
+              <c:f>'Raspberry Pi'!$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Small data</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Large data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Key &amp; data</c:v>
+                  <c:v>SELECT *</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1495,151 +1592,23 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$3:$D$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$E$22:$E$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$7:$D$9</c:f>
+              <c:f>'Raspberry Pi'!$E$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>649350.64935064933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F466-4F2B-9384-4065DD91146E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BLOB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Small data</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Large data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Key &amp; data</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$3:$E$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$E$7:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F466-4F2B-9384-4065DD91146E}"/>
+              <c16:uniqueId val="{00000003-7ED9-4E30-847B-8AD74C1D8B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1662,45 +1631,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1603955616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1750,7 +1686,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:t>Queries/sec</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1784,7 +1720,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1929,8 +1865,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Inserts</a:t>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Single Record Queries</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1976,7 +1912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>'Raspberry Pi'!$B$2:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -2058,15 +1994,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Raspberry Pi'!$A$11:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Insert</c:v>
+                  <c:v>Seqential key-value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random key-value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2076,23 +2015,26 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$3:$B$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$B$4:$B$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>'Raspberry Pi'!$B$11:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>851</c:v>
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63AE-4977-8C90-2C885B17BE6D}"/>
+              <c16:uniqueId val="{00000000-D2F5-4672-BA0F-DBF97C30423E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2101,7 +2043,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>'Raspberry Pi'!$C$2:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2186,15 +2128,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Raspberry Pi'!$A$11:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Insert</c:v>
+                  <c:v>Seqential key-value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random key-value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2204,23 +2149,26 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$3:$C$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$C$4:$C$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>'Raspberry Pi'!$C$11:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13430</c:v>
+                  <c:v>16109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63AE-4977-8C90-2C885B17BE6D}"/>
+              <c16:uniqueId val="{00000001-D2F5-4672-BA0F-DBF97C30423E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2229,7 +2177,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>'Raspberry Pi'!$D$2:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2314,15 +2262,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Raspberry Pi'!$A$11:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Insert</c:v>
+                  <c:v>Seqential key-value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random key-value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2332,23 +2283,26 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$3:$D$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$D$4:$D$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>'Raspberry Pi'!$D$11:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14202</c:v>
+                  <c:v>15912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63AE-4977-8C90-2C885B17BE6D}"/>
+              <c16:uniqueId val="{00000002-D2F5-4672-BA0F-DBF97C30423E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2357,7 +2311,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
+              <c:f>'Raspberry Pi'!$E$2:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2442,15 +2396,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Raspberry Pi'!$A$11:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Insert</c:v>
+                  <c:v>Seqential key-value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random key-value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2460,23 +2417,26 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$3:$E$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$E$4:$E$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>'Raspberry Pi'!$E$11:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14791</c:v>
+                  <c:v>15929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-63AE-4977-8C90-2C885B17BE6D}"/>
+              <c16:uniqueId val="{00000003-D2F5-4672-BA0F-DBF97C30423E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2766,8 +2726,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t>Single Record Queries</a:t>
+              <a:rPr lang="en-CA"/>
+              <a:t>Inserts/sec</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2813,7 +2773,2032 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>'Raspberry Pi'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBITS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$B$22:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>587544.06580493541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5591-49C1-A5A7-820223E1359E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$C$20:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$C$22:$C$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37230.081906180196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5591-49C1-A5A7-820223E1359E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$D$20:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TEXT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$D$22:$D$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35206.308970567523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5591-49C1-A5A7-820223E1359E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$E$20:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BLOB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$22:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$E$22:$E$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33804.340477317288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5591-49C1-A5A7-820223E1359E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1603935936"/>
+        <c:axId val="1603955616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1603935936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1603955616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1603955616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Inserts/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603935936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Data-based</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Queries</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>SBITS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$8:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Large data</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Key &amp; data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$B$4:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-710D-4F65-90DC-6D87D6992760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$8:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Large data</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Key &amp; data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$C$4:$C$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-710D-4F65-90DC-6D87D6992760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INT Forced No Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$8:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Large data</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Key &amp; data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$F$4:$F$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$F$8:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FAD-4372-8435-28F6F00E70FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1603935936"/>
+        <c:axId val="1603955616"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$D$2:$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>SQLite</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>TEXT</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                  <c:extLst/>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$A$8:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Small data</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Large data</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Key &amp; data</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$D$4:$D$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$D$8:$D$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-710D-4F65-90DC-6D87D6992760}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$E$2:$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>SQLite</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>BLOB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$A$8:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Small data</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Large data</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Key &amp; data</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$E$4:$E$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$E$8:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-710D-4F65-90DC-6D87D6992760}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1603935936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603955616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1603955616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603935936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Key-based</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Queries</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>SBITS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SELECT *</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Small key</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large key</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$B$4:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C92-4149-A5E2-6818BA7EE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SELECT *</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Small key</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large key</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$C$4:$C$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C92-4149-A5E2-6818BA7EE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TEXT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SELECT *</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Small key</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large key</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$D$4:$D$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C92-4149-A5E2-6818BA7EE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BLOB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SELECT *</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Small key</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large key</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Raspberry Pi'!$E$4:$E$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Raspberry Pi'!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C92-4149-A5E2-6818BA7EE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1603935936"/>
+        <c:axId val="1603955616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1603935936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603955616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1603955616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603935936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Data-based</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Queries</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raspberry Pi'!$B$2:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -2895,18 +4880,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$10:$A$11</c:f>
+              <c:f>'Raspberry Pi'!$A$8:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Seqential key-value</c:v>
+                  <c:v>Small data</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Random key-value</c:v>
+                  <c:v>Large data</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Key &amp; data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2916,26 +4904,29 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$3:$B$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$B$4:$B$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$10:$B$11</c:f>
+              <c:f>'Raspberry Pi'!$B$8:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>931</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7584</c:v>
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AD2-40DD-8329-291D59FEDE7D}"/>
+              <c16:uniqueId val="{00000000-F0CA-41E6-B974-97525FF9D1D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2944,7 +4935,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>'Raspberry Pi'!$C$2:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3029,18 +5020,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$10:$A$11</c:f>
+              <c:f>'Raspberry Pi'!$A$8:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Seqential key-value</c:v>
+                  <c:v>Small data</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Random key-value</c:v>
+                  <c:v>Large data</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Key &amp; data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3050,49 +5044,52 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$3:$C$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$C$4:$C$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$10:$C$11</c:f>
+              <c:f>'Raspberry Pi'!$C$8:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16109</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22002</c:v>
+                  <c:v>3537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AD2-40DD-8329-291D59FEDE7D}"/>
+              <c16:uniqueId val="{00000001-F0CA-41E6-B974-97525FF9D1D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>'Raspberry Pi'!$F$2:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>SQLite</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEXT</c:v>
+                  <c:v>INT Forced No Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3163,18 +5160,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$10:$A$11</c:f>
+              <c:f>'Raspberry Pi'!$A$8:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Seqential key-value</c:v>
+                  <c:v>Small data</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Random key-value</c:v>
+                  <c:v>Large data</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Key &amp; data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3184,160 +5184,29 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$3:$D$11</c15:sqref>
+                    <c15:sqref>'Raspberry Pi'!$F$4:$F$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$10:$D$11</c:f>
+              <c:f>'Raspberry Pi'!$F$8:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15912</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22125</c:v>
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2AD2-40DD-8329-291D59FEDE7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BLOB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$10:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Seqential key-value</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Random key-value</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$3:$E$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$E$10:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>15929</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2AD2-40DD-8329-291D59FEDE7D}"/>
+              <c16:uniqueId val="{00000002-F0CA-41E6-B974-97525FF9D1D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3354,6 +5223,296 @@
         <c:overlap val="-27"/>
         <c:axId val="1603935936"/>
         <c:axId val="1603955616"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$D$2:$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>SQLite</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>TEXT</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$A$8:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Small data</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Large data</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Key &amp; data</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$D$4:$D$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$D$8:$D$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F0CA-41E6-B974-97525FF9D1D2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$E$2:$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>SQLite</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>BLOB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$A$4:$A$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$A$8:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Small data</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Large data</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Key &amp; data</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Raspberry Pi'!$E$4:$E$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Raspberry Pi'!$E$8:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F0CA-41E6-B974-97525FF9D1D2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="1603935936"/>
@@ -3753,6 +5912,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5765,31 +8044,1542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>415214</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>175236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB21E217-2A3B-E1D4-5214-867B4E2E0F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D065D483-34A9-432B-9C3F-184EF0D6A6D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5805,28 +9595,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257992</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>155665</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>415214</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B612C7-144A-4D3A-B260-8463EA7D4428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3169082-CAB8-4FC5-A2E8-9A246E161A05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5843,23 +9633,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>424543</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279763</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>57694</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>176686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE12E3B-0CBF-450B-B0C5-E593F6B27CF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A55867-5B38-48B3-B2C8-FA668AA02B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5881,28 +9671,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>424543</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279763</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>112123</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>176687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF469341-B314-479F-A84C-1569EC481FD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D627632-CCCE-46B5-96C6-A4CAC4FF5431}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5912,6 +9702,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0AB233-8355-416D-862B-45EBA3577188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176686</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F35C97B-E8FF-4A11-B25C-0660DA78CE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDFC106-D5B5-41CC-A3AA-A0C26C091C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6217,10 +10121,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35606652-F608-4B20-B504-C035B1250B44}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>851</v>
+      </c>
+      <c r="C4">
+        <v>13430</v>
+      </c>
+      <c r="D4">
+        <v>14202</v>
+      </c>
+      <c r="E4">
+        <v>14791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>185</v>
+      </c>
+      <c r="C5">
+        <v>1094</v>
+      </c>
+      <c r="D5">
+        <v>770</v>
+      </c>
+      <c r="E5">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>108</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>182</v>
+      </c>
+      <c r="C7">
+        <v>983</v>
+      </c>
+      <c r="D7">
+        <v>693</v>
+      </c>
+      <c r="E7">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>187</v>
+      </c>
+      <c r="F8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>184</v>
+      </c>
+      <c r="C9">
+        <v>3537</v>
+      </c>
+      <c r="F9">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <v>2054</v>
+      </c>
+      <c r="F10">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>931</v>
+      </c>
+      <c r="C11">
+        <v>16109</v>
+      </c>
+      <c r="D11">
+        <v>15912</v>
+      </c>
+      <c r="E11">
+        <v>15929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7584</v>
+      </c>
+      <c r="C12">
+        <v>22002</v>
+      </c>
+      <c r="D12">
+        <v>22125</v>
+      </c>
+      <c r="E12">
+        <v>22136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <f>500000/(B4/1000)</f>
+        <v>587544.06580493541</v>
+      </c>
+      <c r="C22" s="1">
+        <f>500000/(C4/1000)</f>
+        <v>37230.081906180196</v>
+      </c>
+      <c r="D22" s="1">
+        <f>500000/(D4/1000)</f>
+        <v>35206.308970567523</v>
+      </c>
+      <c r="E22" s="1">
+        <f>500000/(E4/1000)</f>
+        <v>33804.340477317288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <f>500000/(B5/1000)</f>
+        <v>2702702.702702703</v>
+      </c>
+      <c r="C23" s="1">
+        <f>500000/(C5/1000)</f>
+        <v>457038.39122486283</v>
+      </c>
+      <c r="D23" s="1">
+        <f>500000/(D5/1000)</f>
+        <v>649350.64935064933</v>
+      </c>
+      <c r="E23" s="1">
+        <f>500000/(E5/1000)</f>
+        <v>649350.64935064933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:E30" si="0">500000/(B11/1000)</f>
+        <v>537056.92803437158</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>31038.549878949652</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>31422.825540472597</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>31389.289974260781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>65928.270042194097</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>22725.206799381875</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>22598.870056497177</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>22587.640043368268</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDDBCCB-87C6-477B-81BD-425AAF0EA1B7}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6228,167 +10491,266 @@
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>851</v>
-      </c>
-      <c r="C3">
-        <v>13430</v>
-      </c>
-      <c r="D3">
-        <v>14202</v>
-      </c>
-      <c r="E3">
-        <v>14791</v>
+      <c r="B4">
+        <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>185</v>
-      </c>
-      <c r="C4">
-        <v>1094</v>
-      </c>
-      <c r="D4">
-        <v>770</v>
-      </c>
-      <c r="E4">
-        <v>770</v>
+      <c r="B5">
+        <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>108</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <v>75</v>
+      <c r="B6">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>182</v>
-      </c>
-      <c r="C6">
-        <v>983</v>
-      </c>
-      <c r="D6">
-        <v>693</v>
-      </c>
-      <c r="E6">
-        <v>693</v>
+      <c r="B7">
+        <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>187</v>
+      <c r="B8">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>184</v>
-      </c>
-      <c r="C8">
-        <v>3537</v>
+      <c r="B9">
+        <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>113</v>
-      </c>
-      <c r="C9">
-        <v>2054</v>
+      <c r="B10">
+        <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>931</v>
-      </c>
-      <c r="C10">
-        <v>16109</v>
-      </c>
-      <c r="D10">
-        <v>15912</v>
-      </c>
-      <c r="E10">
-        <v>15929</v>
+      <c r="B11">
+        <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>7584</v>
-      </c>
-      <c r="C11">
-        <v>22002</v>
-      </c>
-      <c r="D11">
-        <v>22125</v>
-      </c>
-      <c r="E11">
-        <v>22136</v>
+      <c r="B12">
+        <v>9014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <f>500000/(B4/1000)</f>
+        <v>2164502.1645021643</v>
+      </c>
+      <c r="C22" s="1" t="e">
+        <f>500000/(C4/1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="1" t="e">
+        <f>500000/(D4/1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="1" t="e">
+        <f>500000/(E4/1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <f>500000/(B5/1000)</f>
+        <v>3623188.4057971011</v>
+      </c>
+      <c r="C23" s="1" t="e">
+        <f>500000/(C5/1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="1" t="e">
+        <f>500000/(D5/1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="1" t="e">
+        <f>500000/(E5/1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:E30" si="0">500000/(B11/1000)</f>
+        <v>1466275.6598240468</v>
+      </c>
+      <c r="C29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>55469.270024406484</v>
+      </c>
+      <c r="C30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>